--- a/tampilan.xlsx
+++ b/tampilan.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dba96f227884189a/Work/Binus/Intro Programing/Final Project/Introduction-to-Programing-Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F5005D-696A-4585-A2B4-4EE01961B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{D8F5005D-696A-4585-A2B4-4EE01961B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B984167-4A53-4FCA-99FB-3638E91A3FED}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tampilan" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>root</t>
   </si>
@@ -45,11 +42,26 @@
 2. Lihat Rincian Penjualan 
 3. lain lain</t>
   </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Silahkan masukan pilihan anda</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,6 +600,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,36 +902,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/tampilan.xlsx
+++ b/tampilan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dba96f227884189a/Work/Binus/Intro Programing/Final Project/Introduction-to-Programing-Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{D8F5005D-696A-4585-A2B4-4EE01961B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B984167-4A53-4FCA-99FB-3638E91A3FED}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{D8F5005D-696A-4585-A2B4-4EE01961B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB24254A-3282-4CFF-A3C4-D3465847B0F4}"/>
   <bookViews>
     <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>root</t>
   </si>
@@ -56,6 +56,43 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>-------------------------------------
+Anda akan mencatat penjualan baru, setelah ini silahkan masukan IdBarang (cont: S-01), Jumlah, dan Harga Penjualan</t>
+  </si>
+  <si>
+    <t>Silahkan masukan IdBarang</t>
+  </si>
+  <si>
+    <t>catat_penjualan</t>
+  </si>
+  <si>
+    <t>catat_penjualan_IdBarang</t>
+  </si>
+  <si>
+    <t>Silahkan masukan jumlah penjualan</t>
+  </si>
+  <si>
+    <t>Silahkan masukan total harga jual</t>
+  </si>
+  <si>
+    <t>catat_penjualan_Harga</t>
+  </si>
+  <si>
+    <t>catat_penjualan_Jumlah</t>
+  </si>
+  <si>
+    <t>catat_penjualan_success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yey Pencatatan </t>
+  </si>
+  <si>
+    <t>catat_penjualan_Confirm_id</t>
+  </si>
+  <si>
+    <t>Masukan y/n</t>
   </si>
 </sst>
 </file>
@@ -539,9 +576,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -903,14 +943,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
     <col min="3" max="3" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -956,6 +998,72 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tampilan.xlsx
+++ b/tampilan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dba96f227884189a/Work/Binus/Intro Programing/Final Project/Introduction-to-Programing-Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{D8F5005D-696A-4585-A2B4-4EE01961B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB24254A-3282-4CFF-A3C4-D3465847B0F4}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{D8F5005D-696A-4585-A2B4-4EE01961B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D78CA647-412D-4B95-AF32-77591E1FE3C0}"/>
   <bookViews>
     <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>root</t>
   </si>
@@ -93,6 +93,16 @@
   </si>
   <si>
     <t>Masukan y/n</t>
+  </si>
+  <si>
+    <t>analytics</t>
+  </si>
+  <si>
+    <t>-----------------------------------------
+Analisa transaksi UMKM Kamu: 
+-----------------------------------------
+1. Ringkasan Transaksi (Seluruh barang) 
+2. Ringkasan Transaksi (Barang tertentu)</t>
   </si>
 </sst>
 </file>
@@ -943,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1061,6 +1071,28 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/tampilan.xlsx
+++ b/tampilan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dba96f227884189a/Work/Binus/Intro Programing/Final Project/Introduction-to-Programing-Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{D8F5005D-696A-4585-A2B4-4EE01961B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D78CA647-412D-4B95-AF32-77591E1FE3C0}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{D8F5005D-696A-4585-A2B4-4EE01961B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D99BC0-AEFA-4AFB-80A4-95CD7047328A}"/>
   <bookViews>
     <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>root</t>
   </si>
@@ -103,6 +103,9 @@
 -----------------------------------------
 1. Ringkasan Transaksi (Seluruh barang) 
 2. Ringkasan Transaksi (Barang tertentu)</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -953,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +969,7 @@
     <col min="3" max="3" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -980,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -994,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1029,8 +1032,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
